--- a/gasmarketmodel/data/outputs/template.xlsx
+++ b/gasmarketmodel/data/outputs/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\flo\code\freichel\gasmarketmodel\gasmarketmodel\data\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145044CB-F2A8-4689-B789-CF0B551C7466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771D2494-7135-4DAF-AF92-503956E00F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="7" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="LNG" sheetId="3" r:id="rId6"/>
     <sheet name="Connections" sheetId="8" r:id="rId7"/>
     <sheet name="Price" sheetId="4" r:id="rId8"/>
+    <sheet name="Mapping" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="D_CONNECTION_NAME" localSheetId="6">OFFSET(Connections!$A$18,0,0,COUNTA(Connections!$A$18:$A$116))</definedName>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>Select Region:</t>
   </si>
@@ -109,6 +110,9 @@
   </si>
   <si>
     <t>Demand</t>
+  </si>
+  <si>
+    <t>Master</t>
   </si>
 </sst>
 </file>
@@ -6078,7 +6082,7 @@
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -13588,8 +13592,8 @@
   </sheetPr>
   <dimension ref="A1:U116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -24501,4 +24505,30 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1788040-3DA4-4419-99CD-732427DB1968}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/gasmarketmodel/data/outputs/template.xlsx
+++ b/gasmarketmodel/data/outputs/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\flo\code\freichel\gasmarketmodel\gasmarketmodel\data\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771D2494-7135-4DAF-AF92-503956E00F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A045BA3-4AD4-4860-91B5-EFB3475857E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="7" r:id="rId1"/>
@@ -18,26 +18,30 @@
     <sheet name="Production" sheetId="2" r:id="rId3"/>
     <sheet name="Supply Mix" sheetId="9" r:id="rId4"/>
     <sheet name="Piped Imports" sheetId="6" r:id="rId5"/>
-    <sheet name="LNG" sheetId="3" r:id="rId6"/>
-    <sheet name="Connections" sheetId="8" r:id="rId7"/>
-    <sheet name="Price" sheetId="4" r:id="rId8"/>
-    <sheet name="Mapping" sheetId="10" r:id="rId9"/>
+    <sheet name="Piped Exports" sheetId="11" r:id="rId6"/>
+    <sheet name="LNG" sheetId="3" r:id="rId7"/>
+    <sheet name="Connections" sheetId="8" r:id="rId8"/>
+    <sheet name="Price" sheetId="4" r:id="rId9"/>
+    <sheet name="Mapping" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="D_CONNECTION_NAME" localSheetId="6">OFFSET(Connections!$A$18,0,0,COUNTA(Connections!$A$18:$A$116))</definedName>
-    <definedName name="D_DESTINATION" localSheetId="6">OFFSET(Connections!$C$18,0,0,COUNTA(Connections!$C$18:$C$116))</definedName>
-    <definedName name="D_LNG_NAME" localSheetId="5">OFFSET(LNG!$A$14,0,0,COUNTA(LNG!$A$14:$A$112))</definedName>
-    <definedName name="D_ORIGIN" localSheetId="6">OFFSET(Connections!$B$18,0,0,COUNTA(Connections!$B$18:$B$116))</definedName>
+    <definedName name="D_CONNECTION_NAME" localSheetId="7">OFFSET(Connections!$A$18,0,0,COUNTA(Connections!$A$18:$A$116))</definedName>
+    <definedName name="D_DESTINATION" localSheetId="7">OFFSET(Connections!$C$18,0,0,COUNTA(Connections!$C$18:$C$116))</definedName>
+    <definedName name="D_DESTINATION" localSheetId="5">OFFSET('Piped Exports'!$B$18,0,0,COUNTA('Piped Exports'!$B$18:$B$116))</definedName>
+    <definedName name="D_LNG_NAME" localSheetId="6">OFFSET(LNG!$A$14,0,0,COUNTA(LNG!$A$14:$A$112))</definedName>
+    <definedName name="D_ORIGIN" localSheetId="7">OFFSET(Connections!$B$18,0,0,COUNTA(Connections!$B$18:$B$116))</definedName>
     <definedName name="D_ORIGIN" localSheetId="4">OFFSET('Piped Imports'!$B$18,0,0,COUNTA('Piped Imports'!$B$18:$B$116))</definedName>
+    <definedName name="D_PIPED_NAME" localSheetId="5">OFFSET('Piped Exports'!$A$18,0,0,COUNTA('Piped Exports'!$A$18:$A$116))</definedName>
     <definedName name="D_PIPED_NAME" localSheetId="4">OFFSET('Piped Imports'!$A$18,0,0,COUNTA('Piped Imports'!$A$18:$A$116))</definedName>
     <definedName name="D_REGION" localSheetId="1">OFFSET(Demand!$A$6,0,0,COUNTA(Demand!$A$6:$A$104))</definedName>
-    <definedName name="D_REGION" localSheetId="5">OFFSET(LNG!$C$14,0,0,COUNTA(LNG!$C$14:$C$112))</definedName>
+    <definedName name="D_REGION" localSheetId="6">OFFSET(LNG!$C$14,0,0,COUNTA(LNG!$C$14:$C$112))</definedName>
+    <definedName name="D_REGION" localSheetId="5">OFFSET('Piped Exports'!$C$18,0,0,COUNTA('Piped Exports'!$C$18:$C$116))</definedName>
     <definedName name="D_REGION" localSheetId="4">OFFSET('Piped Imports'!$C$18,0,0,COUNTA('Piped Imports'!$C$18:$C$116))</definedName>
-    <definedName name="D_REGION" localSheetId="7">OFFSET(Price!$A$6,0,0,COUNTA(Price!$A$6:$A$104))</definedName>
+    <definedName name="D_REGION" localSheetId="8">OFFSET(Price!$A$6,0,0,COUNTA(Price!$A$6:$A$104))</definedName>
     <definedName name="D_REGION" localSheetId="2">OFFSET(Production!$A$6,0,0,COUNTA(Production!$A$6:$A$104))</definedName>
-    <definedName name="D_REGION" localSheetId="3">OFFSET('Supply Mix'!$A$17,0,0,COUNTA('Supply Mix'!$A$17:$A$115))</definedName>
-    <definedName name="D_TERMINAL" localSheetId="5">OFFSET(LNG!$B$14,0,0,COUNTA(LNG!$B$14:$B$112))</definedName>
-    <definedName name="D_TYPE" localSheetId="3">OFFSET('Supply Mix'!$B$17,0,0,COUNTA('Supply Mix'!$B$17:$B$117))</definedName>
+    <definedName name="D_REGION" localSheetId="3">OFFSET('Supply Mix'!$A$18,0,0,COUNTA('Supply Mix'!$A$18:$A$116))</definedName>
+    <definedName name="D_TERMINAL" localSheetId="6">OFFSET(LNG!$B$14,0,0,COUNTA(LNG!$B$14:$B$112))</definedName>
+    <definedName name="D_TYPE" localSheetId="3">OFFSET('Supply Mix'!$B$18,0,0,COUNTA('Supply Mix'!$B$18:$B$118))</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
   <si>
     <t>Select Region:</t>
   </si>
@@ -113,6 +117,15 @@
   </si>
   <si>
     <t>Master</t>
+  </si>
+  <si>
+    <t>Select Exporter:</t>
+  </si>
+  <si>
+    <t>Exporter</t>
+  </si>
+  <si>
+    <t>Piped Exports</t>
   </si>
 </sst>
 </file>
@@ -227,11 +240,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF972A2A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -246,7 +264,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -264,7 +282,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Demand  (mcm/day)</c:v>
+              <c:v>Demand  (GWh/day)</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -291,7 +309,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -310,7 +328,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Demand  (mcm/day)</c:v>
+                  <c:v>Demand  (GWh/day)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -453,7 +471,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="501597135"/>
@@ -496,7 +514,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="501598799"/>
@@ -519,7 +537,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -533,11 +551,11 @@
     <c:title>
       <c:tx>
         <c:strRef>
-          <c:f>LNG!$A$7</c:f>
+          <c:f>'Piped Exports'!$A$7</c:f>
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>LNG Imports through  (mcm/day)</c:v>
+              <c:v>Piped Exports to  (GWh/day)</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -564,7 +582,1099 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Piped Exports'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Piped Exports to  (GWh/day)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Piped Exports'!$D$17:$T$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Piped Exports'!$D$7:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2594-4403-B252-86405C4BA5CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="501598799"/>
+        <c:axId val="501597135"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="501598799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501597135"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="501597135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501598799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>'Piped Exports'!$A$11</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Piped Exports on  (GWh/day)</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Piped Exports'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Piped Exports to  (GWh/day)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Piped Exports'!$D$17:$T$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Piped Exports'!$D$11:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F48D-4E1C-BAFE-6AA40BAD0A15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="501598799"/>
+        <c:axId val="501597135"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="501598799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501597135"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="501597135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501598799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>'Piped Exports'!$A$15</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Total Piped Exports to  from  (GWh/day)</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Piped Exports'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Piped Exports to  (GWh/day)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Piped Exports'!$D$17:$T$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Piped Exports'!$D$15:$T$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C2FB-47E2-9440-27219A0F5406}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="501598799"/>
+        <c:axId val="501597135"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="501598799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501597135"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="501597135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501598799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>LNG!$A$3</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>LNG Imports into  (GWh/day)</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LNG!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LNG Imports into  (GWh/day)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>LNG!$D$13:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LNG!$D$3:$T$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AFF9-4B75-94FD-97072E136D55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="501598799"/>
+        <c:axId val="501597135"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="501598799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501597135"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="501597135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501598799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>LNG!$A$7</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>LNG Imports through  (GWh/day)</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -583,7 +1693,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LNG Imports through  (mcm/day)</c:v>
+                  <c:v>LNG Imports through  (GWh/day)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -726,7 +1836,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="501597135"/>
@@ -769,7 +1879,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="501598799"/>
@@ -789,10 +1899,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -810,7 +1920,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>LNG Imports on  (mcm/day)</c:v>
+              <c:v>LNG Imports on  (GWh/day)</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -837,7 +1947,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -856,7 +1966,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LNG Imports through  (mcm/day)</c:v>
+                  <c:v>LNG Imports through  (GWh/day)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -999,7 +2109,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="501597135"/>
@@ -1042,7 +2152,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="501598799"/>
@@ -1062,10 +2172,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1083,7 +2193,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Total Imports into  (mcm/day)</c:v>
+              <c:v>Total Imports into  (GWh/day)</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -1110,7 +2220,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1129,7 +2239,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total Imports into  (mcm/day)</c:v>
+                  <c:v>Total Imports into  (GWh/day)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1272,7 +2382,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="501597135"/>
@@ -1315,7 +2425,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="501598799"/>
@@ -1335,10 +2445,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1356,7 +2466,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Total Exports from  (mcm/day)</c:v>
+              <c:v>Total Exports from  (GWh/day)</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -1383,7 +2493,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1402,7 +2512,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total Exports from  (mcm/day)</c:v>
+                  <c:v>Total Exports from  (GWh/day)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1545,7 +2655,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="501597135"/>
@@ -1588,7 +2698,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="501598799"/>
@@ -1608,10 +2718,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1629,7 +2739,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Net Flows on  (mcm/day)</c:v>
+              <c:v>Net Flows on  (GWh/day)</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -1656,7 +2766,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1675,7 +2785,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total Exports from  (mcm/day)</c:v>
+                  <c:v>Total Exports from  (GWh/day)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1818,7 +2928,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="501597135"/>
@@ -1861,7 +2971,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="501598799"/>
@@ -1881,10 +2991,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1902,7 +3012,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Net Flows from  to  (mcm/day)</c:v>
+              <c:v>Net Flows from  to  (GWh/day)</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -1929,7 +3039,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1948,7 +3058,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total Exports from  (mcm/day)</c:v>
+                  <c:v>Total Exports from  (GWh/day)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2091,7 +3201,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="501597135"/>
@@ -2134,7 +3244,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="501598799"/>
@@ -2154,10 +3264,283 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>Production!$A$3</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Production  (GWh/day)</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Production!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Production  (GWh/day)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Production!$B$5:$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Production!$B$3:$R$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-68CF-41F9-A4DA-C2FCE4B962F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="501598799"/>
+        <c:axId val="501597135"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="501598799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501597135"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="501597135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501598799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2202,7 +3585,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2364,7 +3747,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="501597135"/>
@@ -2407,7 +3790,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="501598799"/>
@@ -2427,10 +3810,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2444,11 +3827,11 @@
     <c:title>
       <c:tx>
         <c:strRef>
-          <c:f>Production!$A$3</c:f>
+          <c:f>'Supply Mix'!$A$3</c:f>
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Production  (mcm/day)</c:v>
+              <c:v>Supply Mix for  (GWh/day)</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -2475,280 +3858,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Production!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Production  (mcm/day)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Production!$B$5:$R$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Production!$B$3:$R$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-68CF-41F9-A4DA-C2FCE4B962F8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="501598799"/>
-        <c:axId val="501597135"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="501598799"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="501597135"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="2"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="501597135"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="501598799"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="0"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:strRef>
-          <c:f>'Supply Mix'!$A$3</c:f>
-          <c:strCache>
-            <c:ptCount val="1"/>
-            <c:pt idx="0">
-              <c:v>Supply Mix for  (mcm/day)</c:v>
-            </c:pt>
-          </c:strCache>
-        </c:strRef>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2775,7 +3885,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln w="28575" cap="rnd">
               <a:noFill/>
@@ -2793,7 +3903,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Supply Mix'!$C$15:$S$15</c:f>
+              <c:f>'Supply Mix'!$C$16:$S$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2882,7 +3992,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="7030A0"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:effectLst>
               <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
@@ -2895,7 +4005,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Supply Mix'!$C$15:$S$15</c:f>
+              <c:f>'Supply Mix'!$C$16:$S$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2977,14 +4087,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LNG Imports</c:v>
+                  <c:v>Piped Exports</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="972A2A"/>
             </a:solidFill>
             <a:effectLst>
               <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
@@ -2997,7 +4107,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Supply Mix'!$C$15:$S$15</c:f>
+              <c:f>'Supply Mix'!$C$16:$S$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3079,14 +4189,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Imports</c:v>
+                  <c:v>LNG Imports</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="7030A0"/>
             </a:solidFill>
             <a:effectLst>
               <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
@@ -3099,7 +4209,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Supply Mix'!$C$15:$S$15</c:f>
+              <c:f>'Supply Mix'!$C$16:$S$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3181,20 +4291,20 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Exports</c:v>
+                  <c:v>Imports</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Supply Mix'!$C$15:$S$15</c:f>
+              <c:f>'Supply Mix'!$C$16:$S$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3264,6 +4374,101 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-29AD-4D91-92B3-BE10C173861B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Supply Mix'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exports</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Supply Mix'!$C$16:$S$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Supply Mix'!$C$9:$S$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D03A-4507-9543-F0EB82949CFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3285,10 +4490,10 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Supply Mix'!$B$9</c:f>
+              <c:f>'Supply Mix'!$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3309,7 +4514,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Supply Mix'!$C$15:$S$15</c:f>
+              <c:f>'Supply Mix'!$C$16:$S$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3318,7 +4523,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Supply Mix'!$C$9:$S$9</c:f>
+              <c:f>'Supply Mix'!$C$10:$S$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3434,7 +4639,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="501597135"/>
@@ -3476,7 +4681,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="501598799"/>
@@ -3510,7 +4715,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3524,11 +4729,11 @@
     <c:title>
       <c:tx>
         <c:strRef>
-          <c:f>'Supply Mix'!$A$13</c:f>
+          <c:f>'Supply Mix'!$A$14</c:f>
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Total Supplies from  (mcm/day)</c:v>
+              <c:v>Total Supplies from  (GWh/day)</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -3555,7 +4760,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3570,11 +4775,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Supply Mix'!$A$13</c:f>
+              <c:f>'Supply Mix'!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total Supplies from  (mcm/day)</c:v>
+                  <c:v>Total Supplies from  (GWh/day)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3593,7 +4798,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Supply Mix'!$C$15:$S$15</c:f>
+              <c:f>'Supply Mix'!$C$16:$S$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3602,7 +4807,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Supply Mix'!$C$13:$S$13</c:f>
+              <c:f>'Supply Mix'!$C$14:$S$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3717,7 +4922,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="501597135"/>
@@ -3760,7 +4965,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="501598799"/>
@@ -3783,7 +4988,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3801,7 +5006,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Piped Imports into  (mcm/day)</c:v>
+              <c:v>Piped Imports into  (GWh/day)</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -3828,7 +5033,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3847,7 +5052,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Piped Imports into  (mcm/day)</c:v>
+                  <c:v>Piped Imports into  (GWh/day)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3990,7 +5195,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="501597135"/>
@@ -4033,7 +5238,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="501598799"/>
@@ -4056,7 +5261,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4074,7 +5279,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Piped Imports through  (mcm/day)</c:v>
+              <c:v>Piped Imports through  (GWh/day)</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -4101,7 +5306,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4120,7 +5325,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Piped Imports through  (mcm/day)</c:v>
+                  <c:v>Piped Imports through  (GWh/day)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4263,7 +5468,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="501597135"/>
@@ -4306,7 +5511,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="501598799"/>
@@ -4329,7 +5534,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4347,7 +5552,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Piped Imports on  (mcm/day)</c:v>
+              <c:v>Piped Imports on  (GWh/day)</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -4374,7 +5579,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4393,7 +5598,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Piped Imports through  (mcm/day)</c:v>
+                  <c:v>Piped Imports through  (GWh/day)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4536,7 +5741,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="501597135"/>
@@ -4579,7 +5784,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="501598799"/>
@@ -4602,7 +5807,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4620,7 +5825,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Total Piped Imports from  to  (mcm/day)</c:v>
+              <c:v>Total Piped Imports from  to  (GWh/day)</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -4647,7 +5852,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4666,7 +5871,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Piped Imports through  (mcm/day)</c:v>
+                  <c:v>Piped Imports through  (GWh/day)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4809,7 +6014,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="501597135"/>
@@ -4852,7 +6057,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="501598799"/>
@@ -4875,7 +6080,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4889,11 +6094,11 @@
     <c:title>
       <c:tx>
         <c:strRef>
-          <c:f>LNG!$A$3</c:f>
+          <c:f>'Piped Exports'!$A$3</c:f>
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>LNG Imports into  (mcm/day)</c:v>
+              <c:v>Piped Exports from  (GWh/day)</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -4920,7 +6125,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4935,11 +6140,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>LNG!$A$3</c:f>
+              <c:f>'Piped Exports'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LNG Imports into  (mcm/day)</c:v>
+                  <c:v>Piped Exports from  (GWh/day)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4947,7 +6152,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="7030A0"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -4958,7 +6163,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>LNG!$D$13:$T$13</c:f>
+              <c:f>'Piped Exports'!$D$17:$T$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4967,7 +6172,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>LNG!$D$3:$T$3</c:f>
+              <c:f>'Piped Exports'!$D$3:$T$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -5028,7 +6233,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AFF9-4B75-94FD-97072E136D55}"/>
+              <c16:uniqueId val="{00000000-F481-4839-B40E-4D62AF570798}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5082,7 +6287,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="501597135"/>
@@ -5125,7 +6330,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="501598799"/>
@@ -5239,7 +6444,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>3457574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5271,13 +6476,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>3457574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5485,6 +6690,163 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EF4769D-616A-4C13-8D82-3465514D9EEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>3457574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{428CA910-7794-459F-BDA5-4CB3586BC322}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3457574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABB21A31-1F34-4E83-88B1-E2BCDF9FCEC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3457574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11DC7D6F-C6E0-4FA8-AF0D-E1D3E5082A4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3457574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
@@ -5582,7 +6944,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5739,7 +7101,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5781,7 +7143,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6086,7 +7448,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
   </cols>
@@ -6096,6 +7458,32 @@
         <v>9</v>
       </c>
       <c r="B1" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1788040-3DA4-4419-99CD-732427DB1968}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6113,7 +7501,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="19" max="19" width="102.5703125" customWidth="1"/>
@@ -6165,8 +7553,8 @@
     </row>
     <row r="3" spans="1:19" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
-        <f>"Demand "&amp;$A$2&amp;" (mcm/day)"</f>
-        <v>Demand  (mcm/day)</v>
+        <f>"Demand "&amp;$A$2&amp;" (GWh/day)"</f>
+        <v>Demand  (GWh/day)</v>
       </c>
       <c r="B3" s="3" t="e">
         <f t="shared" ref="B3:R3" si="0">INDEX(B$6:B$104,MATCH($A$2,$A$6:$A$104,0))</f>
@@ -8383,7 +9771,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="19" max="19" width="102.5703125" customWidth="1"/>
@@ -8435,8 +9823,8 @@
     </row>
     <row r="3" spans="1:19" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
-        <f>"Production "&amp;$A$2&amp;" (mcm/day)"</f>
-        <v>Production  (mcm/day)</v>
+        <f>"Production "&amp;$A$2&amp;" (GWh/day)"</f>
+        <v>Production  (GWh/day)</v>
       </c>
       <c r="B3" s="3" t="e">
         <f t="shared" ref="B3:R3" si="0">INDEX(B$6:B$104,MATCH($A$2,$A$6:$A$104,0))</f>
@@ -10647,13 +12035,13 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:T114"/>
+  <dimension ref="A1:T115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="28.5703125" customWidth="1"/>
     <col min="20" max="20" width="102.5703125" customWidth="1"/>
@@ -10707,11 +12095,11 @@
     </row>
     <row r="3" spans="1:20" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
-        <f>"Supply Mix for "&amp;$A$2&amp;" (mcm/day)"</f>
-        <v>Supply Mix for  (mcm/day)</v>
+        <f>"Supply Mix for "&amp;$A$2&amp;" (GWh/day)"</f>
+        <v>Supply Mix for  (GWh/day)</v>
       </c>
       <c r="B3" s="2" t="e">
-        <f>MATCH($A$2,$A$16:$A$114,0)</f>
+        <f>MATCH($A$2,$A$17:$A$115,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C3" s="3"/>
@@ -10735,18 +12123,18 @@
     </row>
     <row r="4" spans="1:20" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="e">
-        <f>MATCH($B4,$B$16:$B$114,0)-1</f>
+        <f>MATCH($B4,$B$17:$B$115,0)-1</f>
         <v>#N/A</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="e">
-        <f>INDEX(C$16:C$114,MATCH($A$2,$A$16:$A$114,0)+$A4)</f>
+        <f>INDEX(C$17:C$115,MATCH($A$2,$A$17:$A$115,0)+$A4)</f>
         <v>#N/A</v>
       </c>
       <c r="D4" s="3" t="e">
-        <f t="shared" ref="D4:S9" si="0">INDEX(D$16:D$114,MATCH($A$2,$A$16:$A$114,0)+$A4)</f>
+        <f t="shared" ref="D4:S10" si="0">INDEX(D$17:D$115,MATCH($A$2,$A$17:$A$115,0)+$A4)</f>
         <v>#N/A</v>
       </c>
       <c r="E4" s="3" t="e">
@@ -10813,14 +12201,14 @@
     </row>
     <row r="5" spans="1:20" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="e">
-        <f t="shared" ref="A5:A9" si="1">MATCH($B5,$B$16:$B$114,0)-1</f>
+        <f t="shared" ref="A5:A10" si="1">MATCH($B5,$B$17:$B$115,0)-1</f>
         <v>#N/A</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="3" t="e">
-        <f t="shared" ref="C5:C9" si="2">INDEX(C$16:C$114,MATCH($A$2,$A$16:$A$114,0)+$A5)</f>
+        <f t="shared" ref="C5:C10" si="2">INDEX(C$17:C$115,MATCH($A$2,$A$17:$A$115,0)+$A5)</f>
         <v>#N/A</v>
       </c>
       <c r="D5" s="3" t="e">
@@ -10895,7 +12283,7 @@
         <v>#N/A</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="e">
         <f t="shared" si="2"/>
@@ -10973,7 +12361,7 @@
         <v>#N/A</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3" t="e">
         <f t="shared" si="2"/>
@@ -11051,7 +12439,7 @@
         <v>#N/A</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3" t="e">
         <f t="shared" si="2"/>
@@ -11129,7 +12517,7 @@
         <v>#N/A</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3" t="e">
         <f t="shared" si="2"/>
@@ -11201,32 +12589,86 @@
       </c>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" ht="273" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
+    <row r="10" spans="1:20" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="11" spans="1:20" ht="273" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -11248,7 +12690,9 @@
       <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -11269,150 +12713,150 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="str">
-        <f>"Total Supplies from "&amp;$A$12&amp;" (mcm/day)"</f>
-        <v>Total Supplies from  (mcm/day)</v>
-      </c>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="3">
-        <f t="shared" ref="C13:S13" si="3">SUMIF($B$16:$B$114,$A$12,C$16:C$114)</f>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="str">
+        <f>"Total Supplies from "&amp;$A$13&amp;" (GWh/day)"</f>
+        <v>Total Supplies from  (GWh/day)</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3">
+        <f t="shared" ref="C14:S14" si="3">SUMIF($B$17:$B$115,$A$13,C$17:C$115)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T13" s="2"/>
-    </row>
-    <row r="14" spans="1:20" ht="273" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:20" ht="273" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="2"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
       <c r="T16" s="2"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -13571,12 +15015,34 @@
       <c r="S114" s="6"/>
       <c r="T114" s="2"/>
     </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
+      <c r="O115" s="6"/>
+      <c r="P115" s="6"/>
+      <c r="Q115" s="6"/>
+      <c r="R115" s="6"/>
+      <c r="S115" s="6"/>
+      <c r="T115" s="2"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{F4EE7DF4-5B61-4B9C-B25E-60444037C755}">
       <formula1>D_REGION</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A12" xr:uid="{8B6E6D58-10E0-4AD8-A1D2-D0630496ADDC}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A13" xr:uid="{8B6E6D58-10E0-4AD8-A1D2-D0630496ADDC}">
       <formula1>D_TYPE</formula1>
     </dataValidation>
   </dataValidations>
@@ -13592,11 +15058,11 @@
   </sheetPr>
   <dimension ref="A1:U116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="28.5703125" customWidth="1"/>
     <col min="21" max="21" width="102.5703125" customWidth="1"/>
@@ -13652,8 +15118,8 @@
     </row>
     <row r="3" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
-        <f>"Piped Imports into "&amp;$A$2&amp;" (mcm/day)"</f>
-        <v>Piped Imports into  (mcm/day)</v>
+        <f>"Piped Imports into "&amp;$A$2&amp;" (GWh/day)"</f>
+        <v>Piped Imports into  (GWh/day)</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -13800,8 +15266,8 @@
     </row>
     <row r="7" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
-        <f>"Piped Imports through "&amp;$A$6&amp;" (mcm/day)"</f>
-        <v>Piped Imports through  (mcm/day)</v>
+        <f>"Piped Imports through "&amp;$A$6&amp;" (GWh/day)"</f>
+        <v>Piped Imports through  (GWh/day)</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -13948,8 +15414,8 @@
     </row>
     <row r="11" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
-        <f>"Piped Imports on "&amp;$A$10&amp;" (mcm/day)"</f>
-        <v>Piped Imports on  (mcm/day)</v>
+        <f>"Piped Imports on "&amp;$A$10&amp;" (GWh/day)"</f>
+        <v>Piped Imports on  (GWh/day)</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -14098,8 +15564,8 @@
     </row>
     <row r="15" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
-        <f>"Total Piped Imports from "&amp;$A$14&amp;" to "&amp;$B$14&amp;" (mcm/day)"</f>
-        <v>Total Piped Imports from  to  (mcm/day)</v>
+        <f>"Total Piped Imports from "&amp;$A$14&amp;" to "&amp;$B$14&amp;" (GWh/day)"</f>
+        <v>Total Piped Imports from  to  (GWh/day)</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -16520,17 +17986,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D371D5-6C5B-4E89-9084-C9C3286751FD}">
   <sheetPr>
-    <tabColor rgb="FF7030A0"/>
+    <tabColor rgb="FF972A2A"/>
   </sheetPr>
-  <dimension ref="A1:U112"/>
+  <dimension ref="A1:U116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="28.5703125" customWidth="1"/>
     <col min="21" max="21" width="102.5703125" customWidth="1"/>
@@ -16586,17 +18052,17 @@
     </row>
     <row r="3" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
-        <f>"LNG Imports into "&amp;$A$2&amp;" (mcm/day)"</f>
-        <v>LNG Imports into  (mcm/day)</v>
+        <f>"Piped Exports from "&amp;$A$2&amp;" (GWh/day)"</f>
+        <v>Piped Exports from  (GWh/day)</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="3">
-        <f>SUMIF($B$14:$B$112,$A$2,D$14:D$112)</f>
+        <f>SUMIF($C$18:$C$116,$A$2,D$18:D$116)</f>
         <v>0</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:T3" si="0">SUMIF($B$14:$B$112,$A$2,E$14:E$112)</f>
+        <f t="shared" ref="E3:T3" si="0">SUMIF($C$18:$C$116,$A$2,E$18:E$116)</f>
         <v>0</v>
       </c>
       <c r="F3" s="3">
@@ -16686,7 +18152,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -16734,17 +18200,17 @@
     </row>
     <row r="7" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
-        <f>"LNG Imports through "&amp;$A$6&amp;" (mcm/day)"</f>
-        <v>LNG Imports through  (mcm/day)</v>
+        <f>"Piped Exports to "&amp;$A$6&amp;" (GWh/day)"</f>
+        <v>Piped Exports to  (GWh/day)</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3">
-        <f>SUMIF($A$14:$A$112,$A$6,D$14:D$112)</f>
+        <f>SUMIF($B$18:$B$116,$A$6,D$18:D$116)</f>
         <v>0</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" ref="E7:T7" si="1">SUMIF($A$14:$A$112,$A$6,E$14:E$112)</f>
+        <f t="shared" ref="E7:T7" si="1">SUMIF($B$18:$B$116,$A$6,E$18:E$116)</f>
         <v>0</v>
       </c>
       <c r="F7" s="3">
@@ -16882,17 +18348,17 @@
     </row>
     <row r="11" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
-        <f>"LNG Imports on "&amp;$A$10&amp;" (mcm/day)"</f>
-        <v>LNG Imports on  (mcm/day)</v>
+        <f>"Piped Exports on "&amp;$A$10&amp;" (GWh/day)"</f>
+        <v>Piped Exports on  (GWh/day)</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="e">
-        <f>INDEX(D$14:D$112,MATCH($A$10,$A$14:$A$112,0))</f>
+        <f>INDEX(D$18:D$116,MATCH($A$10,$A$18:$A$116,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E11" s="3" t="e">
-        <f t="shared" ref="E11:T11" si="2">INDEX(E$14:E$112,MATCH($A$10,$A$14:$A$112,0))</f>
+        <f t="shared" ref="E11:T11" si="2">INDEX(E$18:E$116,MATCH($A$10,$A$18:$A$116,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F11" s="3" t="e">
@@ -16982,6 +18448,2940 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+    </row>
+    <row r="15" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="str">
+        <f>"Total Piped Exports to "&amp;$A$14&amp;" from "&amp;$B$14&amp;" (GWh/day)"</f>
+        <v>Total Piped Exports to  from  (GWh/day)</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3">
+        <f>SUMIFS(D$18:D$116,$B$18:$B$116,$A$14,$C$18:$C$116,$B$14)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" ref="E15:T15" si="3">SUMIFS(E$18:E$116,$B$18:$B$116,$A$14,$C$18:$C$116,$B$14)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="2"/>
+    </row>
+    <row r="16" spans="1:21" ht="273" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="2"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="2"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="2"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="2"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="2"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="2"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="2"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="2"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="2"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="2"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="2"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="2"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="2"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="2"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="2"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="2"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="2"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="2"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="2"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="2"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="2"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="2"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="2"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="2"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="2"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="2"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="2"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="2"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="2"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="2"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="2"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="2"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="2"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="2"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="2"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="2"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="2"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="2"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="2"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="2"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="2"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="2"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="2"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="2"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="2"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="2"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="2"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="2"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="2"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="2"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="2"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="2"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="2"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="2"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="2"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="2"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="2"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="2"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="2"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="2"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="2"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="2"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="2"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="2"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+      <c r="U80" s="2"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="2"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+      <c r="U82" s="2"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
+      <c r="U83" s="2"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
+      <c r="T84" s="6"/>
+      <c r="U84" s="2"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
+      <c r="U85" s="2"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
+      <c r="U86" s="2"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
+      <c r="U87" s="2"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
+      <c r="U88" s="2"/>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+      <c r="T89" s="6"/>
+      <c r="U89" s="2"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="2"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+      <c r="T91" s="6"/>
+      <c r="U91" s="2"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+      <c r="T92" s="6"/>
+      <c r="U92" s="2"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6"/>
+      <c r="U93" s="2"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+      <c r="T94" s="6"/>
+      <c r="U94" s="2"/>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+      <c r="T95" s="6"/>
+      <c r="U95" s="2"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="6"/>
+      <c r="T96" s="6"/>
+      <c r="U96" s="2"/>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+      <c r="T97" s="6"/>
+      <c r="U97" s="2"/>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="6"/>
+      <c r="T98" s="6"/>
+      <c r="U98" s="2"/>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="6"/>
+      <c r="T99" s="6"/>
+      <c r="U99" s="2"/>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+      <c r="O100" s="6"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="6"/>
+      <c r="T100" s="6"/>
+      <c r="U100" s="2"/>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="6"/>
+      <c r="S101" s="6"/>
+      <c r="T101" s="6"/>
+      <c r="U101" s="2"/>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
+      <c r="O102" s="6"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="6"/>
+      <c r="S102" s="6"/>
+      <c r="T102" s="6"/>
+      <c r="U102" s="2"/>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6"/>
+      <c r="O103" s="6"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="6"/>
+      <c r="R103" s="6"/>
+      <c r="S103" s="6"/>
+      <c r="T103" s="6"/>
+      <c r="U103" s="2"/>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
+      <c r="O104" s="6"/>
+      <c r="P104" s="6"/>
+      <c r="Q104" s="6"/>
+      <c r="R104" s="6"/>
+      <c r="S104" s="6"/>
+      <c r="T104" s="6"/>
+      <c r="U104" s="2"/>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
+      <c r="O105" s="6"/>
+      <c r="P105" s="6"/>
+      <c r="Q105" s="6"/>
+      <c r="R105" s="6"/>
+      <c r="S105" s="6"/>
+      <c r="T105" s="6"/>
+      <c r="U105" s="2"/>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
+      <c r="O106" s="6"/>
+      <c r="P106" s="6"/>
+      <c r="Q106" s="6"/>
+      <c r="R106" s="6"/>
+      <c r="S106" s="6"/>
+      <c r="T106" s="6"/>
+      <c r="U106" s="2"/>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="6"/>
+      <c r="N107" s="6"/>
+      <c r="O107" s="6"/>
+      <c r="P107" s="6"/>
+      <c r="Q107" s="6"/>
+      <c r="R107" s="6"/>
+      <c r="S107" s="6"/>
+      <c r="T107" s="6"/>
+      <c r="U107" s="2"/>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
+      <c r="O108" s="6"/>
+      <c r="P108" s="6"/>
+      <c r="Q108" s="6"/>
+      <c r="R108" s="6"/>
+      <c r="S108" s="6"/>
+      <c r="T108" s="6"/>
+      <c r="U108" s="2"/>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
+      <c r="O109" s="6"/>
+      <c r="P109" s="6"/>
+      <c r="Q109" s="6"/>
+      <c r="R109" s="6"/>
+      <c r="S109" s="6"/>
+      <c r="T109" s="6"/>
+      <c r="U109" s="2"/>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
+      <c r="O110" s="6"/>
+      <c r="P110" s="6"/>
+      <c r="Q110" s="6"/>
+      <c r="R110" s="6"/>
+      <c r="S110" s="6"/>
+      <c r="T110" s="6"/>
+      <c r="U110" s="2"/>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
+      <c r="O111" s="6"/>
+      <c r="P111" s="6"/>
+      <c r="Q111" s="6"/>
+      <c r="R111" s="6"/>
+      <c r="S111" s="6"/>
+      <c r="T111" s="6"/>
+      <c r="U111" s="2"/>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
+      <c r="O112" s="6"/>
+      <c r="P112" s="6"/>
+      <c r="Q112" s="6"/>
+      <c r="R112" s="6"/>
+      <c r="S112" s="6"/>
+      <c r="T112" s="6"/>
+      <c r="U112" s="2"/>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
+      <c r="O113" s="6"/>
+      <c r="P113" s="6"/>
+      <c r="Q113" s="6"/>
+      <c r="R113" s="6"/>
+      <c r="S113" s="6"/>
+      <c r="T113" s="6"/>
+      <c r="U113" s="2"/>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="6"/>
+      <c r="N114" s="6"/>
+      <c r="O114" s="6"/>
+      <c r="P114" s="6"/>
+      <c r="Q114" s="6"/>
+      <c r="R114" s="6"/>
+      <c r="S114" s="6"/>
+      <c r="T114" s="6"/>
+      <c r="U114" s="2"/>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
+      <c r="O115" s="6"/>
+      <c r="P115" s="6"/>
+      <c r="Q115" s="6"/>
+      <c r="R115" s="6"/>
+      <c r="S115" s="6"/>
+      <c r="T115" s="6"/>
+      <c r="U115" s="2"/>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
+      <c r="M116" s="6"/>
+      <c r="N116" s="6"/>
+      <c r="O116" s="6"/>
+      <c r="P116" s="6"/>
+      <c r="Q116" s="6"/>
+      <c r="R116" s="6"/>
+      <c r="S116" s="6"/>
+      <c r="T116" s="6"/>
+      <c r="U116" s="2"/>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A2 B14" xr:uid="{BB1B58E7-98E0-4660-8683-6A8BFCD2711F}">
+      <formula1>D_REGION</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10" xr:uid="{8EA2026A-11F4-4B8E-8611-DA8D3AFA3DF4}">
+      <formula1>D_PIPED_NAME</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A6 A14" xr:uid="{E5095827-236E-48AB-A221-A92F805C8ECE}">
+      <formula1>D_DESTINATION</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:U112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="28.5703125" customWidth="1"/>
+    <col min="21" max="21" width="102.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="str">
+        <f>"LNG Imports into "&amp;$A$2&amp;" (GWh/day)"</f>
+        <v>LNG Imports into  (GWh/day)</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3">
+        <f>SUMIF($B$14:$B$112,$A$2,D$14:D$112)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:T3" si="0">SUMIF($B$14:$B$112,$A$2,E$14:E$112)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" ht="273" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="str">
+        <f>"LNG Imports through "&amp;$A$6&amp;" (GWh/day)"</f>
+        <v>LNG Imports through  (GWh/day)</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3">
+        <f>SUMIF($A$14:$A$112,$A$6,D$14:D$112)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" ref="E7:T7" si="1">SUMIF($A$14:$A$112,$A$6,E$14:E$112)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="2"/>
+    </row>
+    <row r="8" spans="1:21" ht="273" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="2"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="str">
+        <f>"LNG Imports on "&amp;$A$10&amp;" (GWh/day)"</f>
+        <v>LNG Imports on  (GWh/day)</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3" t="e">
+        <f>INDEX(D$14:D$112,MATCH($A$10,$A$14:$A$112,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="3" t="e">
+        <f t="shared" ref="E11:T11" si="2">INDEX(E$14:E$112,MATCH($A$10,$A$14:$A$112,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F11" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G11" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H11" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I11" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J11" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K11" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L11" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M11" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N11" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O11" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P11" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q11" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R11" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S11" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T11" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U11" s="2"/>
+    </row>
+    <row r="12" spans="1:21" ht="273" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="2"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -19303,7 +23703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FF593D-73A0-43AE-B035-173A654709DF}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -19314,7 +23714,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="28.5703125" customWidth="1"/>
     <col min="21" max="21" width="102.5703125" customWidth="1"/>
@@ -19370,8 +23770,8 @@
     </row>
     <row r="3" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
-        <f>"Total Imports into "&amp;$A$2&amp;" (mcm/day)"</f>
-        <v>Total Imports into  (mcm/day)</v>
+        <f>"Total Imports into "&amp;$A$2&amp;" (GWh/day)"</f>
+        <v>Total Imports into  (GWh/day)</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -19518,8 +23918,8 @@
     </row>
     <row r="7" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
-        <f>"Total Exports from "&amp;$A$6&amp;" (mcm/day)"</f>
-        <v>Total Exports from  (mcm/day)</v>
+        <f>"Total Exports from "&amp;$A$6&amp;" (GWh/day)"</f>
+        <v>Total Exports from  (GWh/day)</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -19666,8 +24066,8 @@
     </row>
     <row r="11" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
-        <f>"Net Flows on "&amp;$A$10&amp;" (mcm/day)"</f>
-        <v>Net Flows on  (mcm/day)</v>
+        <f>"Net Flows on "&amp;$A$10&amp;" (GWh/day)"</f>
+        <v>Net Flows on  (GWh/day)</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -19816,8 +24216,8 @@
     </row>
     <row r="15" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
-        <f>"Net Flows from "&amp;$A$14&amp;" to "&amp;$B$14&amp;" (mcm/day)"</f>
-        <v>Net Flows from  to  (mcm/day)</v>
+        <f>"Net Flows from "&amp;$A$14&amp;" to "&amp;$B$14&amp;" (GWh/day)"</f>
+        <v>Net Flows from  to  (GWh/day)</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -22237,7 +26637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="1"/>
@@ -22248,7 +26648,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="19" max="19" width="102.5703125" customWidth="1"/>
@@ -24505,30 +28905,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1788040-3DA4-4419-99CD-732427DB1968}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="28.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>